--- a/results/mp/deberta/corona/confidence/126/stop-words-topk-desired-masking-0.35/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-topk-desired-masking-0.35/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="940">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="940">
   <si>
     <t>anchor score</t>
   </si>
@@ -283,586 +283,586 @@
     <t>fuck</t>
   </si>
   <si>
+    <t>upset</t>
+  </si>
+  <si>
+    <t>threat</t>
+  </si>
+  <si>
+    <t>doubled</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>misleading</t>
+  </si>
+  <si>
+    <t>disgrace</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>fault</t>
+  </si>
+  <si>
+    <t>washington</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>confused</t>
+  </si>
+  <si>
+    <t>ashamed</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>idiot</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>announces</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>series</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>caused</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>delayed</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>groups</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>battle</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>act</t>
+  </si>
+  <si>
+    <t>cure</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>australia</t>
+  </si>
+  <si>
+    <t>trends</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>become</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>police</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>front</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>banks</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>taking</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>never</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>trump</t>
+  </si>
+  <si>
+    <t>working</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>impact</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>shelves</t>
+  </si>
+  <si>
+    <t>lock</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>amid</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>due</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>upset</t>
-  </si>
-  <si>
-    <t>threat</t>
-  </si>
-  <si>
-    <t>doubled</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>misleading</t>
-  </si>
-  <si>
-    <t>disgrace</t>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
-    <t>fault</t>
-  </si>
-  <si>
-    <t>washington</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>confused</t>
-  </si>
-  <si>
-    <t>ashamed</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>love</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>worry</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>idiot</t>
-  </si>
-  <si>
-    <t>complaint</t>
-  </si>
-  <si>
-    <t>announces</t>
-  </si>
-  <si>
-    <t>disabled</t>
-  </si>
-  <si>
-    <t>series</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>caused</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>delayed</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>groups</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>battle</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>lowest</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>act</t>
-  </si>
-  <si>
-    <t>cure</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>australia</t>
-  </si>
-  <si>
-    <t>trends</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>become</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>police</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>learn</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>front</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>banks</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>taking</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>never</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>global</t>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>trump</t>
-  </si>
-  <si>
-    <t>working</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>impact</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>shelves</t>
-  </si>
-  <si>
-    <t>lock</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>amid</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>due</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
   </si>
   <si>
     <t>heroes</t>
@@ -3199,10 +3199,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K4">
         <v>0.889763779527559</v>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K6">
         <v>0.8439716312056738</v>
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K7">
         <v>0.8141025641025641</v>
@@ -3531,7 +3531,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K8">
         <v>0.8</v>
@@ -3581,7 +3581,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K9">
         <v>0.7931034482758621</v>
@@ -3681,16 +3681,16 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K11">
-        <v>0.7577092511013216</v>
+        <v>0.7528089887640449</v>
       </c>
       <c r="L11">
-        <v>172</v>
+        <v>67</v>
       </c>
       <c r="M11">
-        <v>184</v>
+        <v>72</v>
       </c>
       <c r="N11">
         <v>0.93</v>
@@ -3702,7 +3702,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>55</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3731,28 +3731,28 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="K12">
-        <v>0.7528089887640449</v>
+        <v>0.75</v>
       </c>
       <c r="L12">
-        <v>67</v>
+        <v>282</v>
       </c>
       <c r="M12">
-        <v>72</v>
+        <v>289</v>
       </c>
       <c r="N12">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="O12">
-        <v>0.06999999999999995</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P12" t="b">
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>22</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3781,28 +3781,28 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>128</v>
+        <v>280</v>
       </c>
       <c r="K13">
-        <v>0.75</v>
+        <v>0.7196652719665272</v>
       </c>
       <c r="L13">
-        <v>282</v>
+        <v>172</v>
       </c>
       <c r="M13">
-        <v>289</v>
+        <v>172</v>
       </c>
       <c r="N13">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>94</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3831,7 +3831,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K14">
         <v>0.6901408450704225</v>
@@ -3881,28 +3881,28 @@
         <v>2</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>105</v>
+        <v>281</v>
       </c>
       <c r="K15">
-        <v>0.6871165644171779</v>
+        <v>0.6739130434782609</v>
       </c>
       <c r="L15">
-        <v>224</v>
+        <v>31</v>
       </c>
       <c r="M15">
-        <v>238</v>
+        <v>31</v>
       </c>
       <c r="N15">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>102</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -3934,13 +3934,13 @@
         <v>282</v>
       </c>
       <c r="K16">
-        <v>0.6739130434782609</v>
+        <v>0.6588235294117647</v>
       </c>
       <c r="L16">
-        <v>31</v>
+        <v>224</v>
       </c>
       <c r="M16">
-        <v>31</v>
+        <v>224</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>15</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -3981,7 +3981,7 @@
         <v>6</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K17">
         <v>0.6567164179104478</v>
@@ -4031,7 +4031,7 @@
         <v>5</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K18">
         <v>0.6352941176470588</v>
@@ -4081,7 +4081,7 @@
         <v>2</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K19">
         <v>0.6140350877192983</v>
@@ -4181,7 +4181,7 @@
         <v>3</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K21">
         <v>0.484472049689441</v>
@@ -4231,7 +4231,7 @@
         <v>60</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K22">
         <v>0.4630541871921182</v>
@@ -4281,7 +4281,7 @@
         <v>3</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K23">
         <v>0.4585987261146497</v>
@@ -4381,7 +4381,7 @@
         <v>3</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K25">
         <v>0.4519230769230769</v>
@@ -4481,7 +4481,7 @@
         <v>2</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K27">
         <v>0.4504132231404959</v>
@@ -4531,7 +4531,7 @@
         <v>4</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K28">
         <v>0.4468085106382979</v>
@@ -4631,7 +4631,7 @@
         <v>3</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K30">
         <v>0.4315789473684211</v>
@@ -4881,7 +4881,7 @@
         <v>5</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K35">
         <v>0.40625</v>
@@ -4931,7 +4931,7 @@
         <v>8</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K36">
         <v>0.40625</v>
@@ -5031,7 +5031,7 @@
         <v>6</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K38">
         <v>0.3939393939393939</v>
@@ -5131,7 +5131,7 @@
         <v>12</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K40">
         <v>0.3694267515923567</v>
@@ -5231,7 +5231,7 @@
         <v>4</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K42">
         <v>0.3680981595092024</v>
@@ -5281,7 +5281,7 @@
         <v>14</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K43">
         <v>0.3571428571428572</v>
@@ -5381,7 +5381,7 @@
         <v>4</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K45">
         <v>0.3538083538083538</v>
@@ -5431,7 +5431,7 @@
         <v>13</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K46">
         <v>0.3517915309446254</v>
@@ -5531,7 +5531,7 @@
         <v>8</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K48">
         <v>0.3454545454545455</v>
@@ -6181,7 +6181,7 @@
         <v>15</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K61">
         <v>0.3234421364985163</v>
@@ -6381,7 +6381,7 @@
         <v>7</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K65">
         <v>0.3160377358490566</v>
@@ -6581,7 +6581,7 @@
         <v>7</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K69">
         <v>0.3055555555555556</v>
@@ -6781,7 +6781,7 @@
         <v>18</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K73">
         <v>0.2976827094474153</v>
@@ -6931,7 +6931,7 @@
         <v>4</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K76">
         <v>0.2916666666666667</v>
@@ -6981,7 +6981,7 @@
         <v>21</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K77">
         <v>0.2906846240179574</v>
@@ -7031,7 +7031,7 @@
         <v>21</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K78">
         <v>0.2903225806451613</v>
@@ -7081,7 +7081,7 @@
         <v>13</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K79">
         <v>0.2876712328767123</v>
@@ -7231,7 +7231,7 @@
         <v>9</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K82">
         <v>0.2857142857142857</v>
@@ -7281,7 +7281,7 @@
         <v>32</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K83">
         <v>0.2857142857142857</v>
@@ -7310,25 +7310,25 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.1791044776119403</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C84">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D84">
-        <v>184</v>
+        <v>1</v>
       </c>
       <c r="E84">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>321</v>
@@ -7363,10 +7363,10 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -7378,7 +7378,7 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>322</v>
@@ -7413,10 +7413,10 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="C86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -7428,7 +7428,7 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>323</v>
@@ -7460,13 +7460,13 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1666666666666667</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -7478,10 +7478,10 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K87">
         <v>0.2846153846153846</v>
@@ -7510,13 +7510,13 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.1578947368421053</v>
+        <v>0.1568627450980392</v>
       </c>
       <c r="C88">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D88">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -7528,7 +7528,7 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>324</v>
@@ -7560,13 +7560,13 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1568627450980392</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C89">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D89">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>325</v>
@@ -7681,7 +7681,7 @@
         <v>6</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K91">
         <v>0.2676056338028169</v>
@@ -7731,7 +7731,7 @@
         <v>6</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K92">
         <v>0.2666666666666667</v>
@@ -7763,10 +7763,10 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -7778,7 +7778,7 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>327</v>
@@ -7810,13 +7810,13 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1428571428571428</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="C94">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -7828,10 +7828,10 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K94">
         <v>0.2655127367733507</v>
@@ -7910,13 +7910,13 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.1333333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="C96">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D96">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -7928,7 +7928,7 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>329</v>
@@ -7981,7 +7981,7 @@
         <v>7</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K97">
         <v>0.2612612612612613</v>
@@ -8010,28 +8010,28 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.125</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>131</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F98">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K98">
         <v>0.2592592592592592</v>
@@ -8060,25 +8060,25 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.1212121212121212</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="C99">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99">
-        <v>131</v>
+        <v>47</v>
       </c>
       <c r="E99">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F99">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G99" t="b">
         <v>1</v>
       </c>
       <c r="H99">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>330</v>
@@ -8110,28 +8110,28 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.1206896551724138</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="C100">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D100">
-        <v>238</v>
+        <v>58</v>
       </c>
       <c r="E100">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F100">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G100" t="b">
         <v>1</v>
       </c>
       <c r="H100">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K100">
         <v>0.2515723270440252</v>
@@ -8160,28 +8160,28 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.1153846153846154</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C101">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D101">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="E101">
-        <v>0.9399999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F101">
-        <v>0.06000000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>
       </c>
       <c r="H101">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K101">
         <v>0.2515395547134059</v>
@@ -8210,25 +8210,25 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1142857142857143</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C102">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D102">
-        <v>58</v>
+        <v>207</v>
       </c>
       <c r="E102">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F102">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G102" t="b">
         <v>1</v>
       </c>
       <c r="H102">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>331</v>
@@ -8263,22 +8263,22 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D103">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="E103">
-        <v>0.5</v>
+        <v>0.97</v>
       </c>
       <c r="F103">
-        <v>0.5</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G103" t="b">
         <v>1</v>
       </c>
       <c r="H103">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>332</v>
@@ -8313,22 +8313,22 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="C104">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D104">
-        <v>207</v>
+        <v>2</v>
       </c>
       <c r="E104">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H104">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>333</v>
@@ -8360,25 +8360,25 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.1111111111111111</v>
+        <v>0.1</v>
       </c>
       <c r="C105">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D105">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="E105">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>334</v>
@@ -8410,13 +8410,13 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.1111111111111111</v>
+        <v>0.1</v>
       </c>
       <c r="C106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -8428,7 +8428,7 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>335</v>
@@ -8463,10 +8463,10 @@
         <v>0.1</v>
       </c>
       <c r="C107">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D107">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -8478,7 +8478,7 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>336</v>
@@ -8560,7 +8560,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -8578,7 +8578,7 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>338</v>
@@ -8610,25 +8610,25 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C110">
         <v>1</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F110">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H110">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>339</v>
@@ -8710,28 +8710,28 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.09090909090909091</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D112">
         <v>2</v>
       </c>
       <c r="E112">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K112">
         <v>0.2464788732394366</v>
@@ -8760,7 +8760,7 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -8778,10 +8778,10 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K113">
         <v>0.2448979591836735</v>
@@ -8810,28 +8810,28 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.08695652173913043</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D114">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F114">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H114">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K114">
         <v>0.2439024390243902</v>
@@ -8881,7 +8881,7 @@
         <v>11</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K115">
         <v>0.2424242424242424</v>
@@ -8910,28 +8910,28 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.08333333333333333</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="E116">
-        <v>0.75</v>
+        <v>0.98</v>
       </c>
       <c r="F116">
-        <v>0.25</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G116" t="b">
         <v>1</v>
       </c>
       <c r="H116">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K116">
         <v>0.2413793103448276</v>
@@ -8960,25 +8960,25 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.08333333333333333</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H117">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>341</v>
@@ -9010,28 +9010,28 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.07692307692307693</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C118">
         <v>1</v>
       </c>
       <c r="D118">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="E118">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H118">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K118">
         <v>0.24</v>
@@ -9081,7 +9081,7 @@
         <v>13</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K119">
         <v>0.2352941176470588</v>
@@ -9116,22 +9116,22 @@
         <v>1</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F120">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H120">
         <v>13</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K120">
         <v>0.2325581395348837</v>
@@ -9160,25 +9160,25 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.07142857142857142</v>
+        <v>0.06930693069306931</v>
       </c>
       <c r="C121">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D121">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E121">
-        <v>0.67</v>
+        <v>0.98</v>
       </c>
       <c r="F121">
-        <v>0.33</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G121" t="b">
         <v>1</v>
       </c>
       <c r="H121">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>342</v>
@@ -9210,7 +9210,7 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -9228,10 +9228,10 @@
         <v>1</v>
       </c>
       <c r="H122">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K122">
         <v>0.2307692307692308</v>
@@ -9260,25 +9260,25 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.06930693069306931</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C123">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D123">
-        <v>289</v>
+        <v>114</v>
       </c>
       <c r="E123">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="F123">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G123" t="b">
         <v>1</v>
       </c>
       <c r="H123">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>343</v>
@@ -9316,16 +9316,16 @@
         <v>1</v>
       </c>
       <c r="D124">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E124">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124">
         <v>14</v>
@@ -9360,25 +9360,25 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.06666666666666667</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="C125">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D125">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="E125">
-        <v>0.99</v>
+        <v>0.75</v>
       </c>
       <c r="F125">
-        <v>0.01000000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="G125" t="b">
         <v>1</v>
       </c>
       <c r="H125">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>345</v>
@@ -9410,7 +9410,7 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -9428,10 +9428,10 @@
         <v>0</v>
       </c>
       <c r="H126">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K126">
         <v>0.2298136645962733</v>
@@ -9460,25 +9460,25 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.06382978723404255</v>
+        <v>0.0625</v>
       </c>
       <c r="C127">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D127">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E127">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H127">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>346</v>
@@ -9510,7 +9510,7 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -9528,7 +9528,7 @@
         <v>0</v>
       </c>
       <c r="H128">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>347</v>
@@ -9560,25 +9560,25 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
       <c r="D129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>348</v>
@@ -9616,16 +9616,16 @@
         <v>1</v>
       </c>
       <c r="D130">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F130">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H130">
         <v>16</v>
@@ -9660,25 +9660,25 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.05882352941176471</v>
+        <v>0.05785123966942149</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D131">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="E131">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="F131">
-        <v>0.5</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G131" t="b">
         <v>1</v>
       </c>
       <c r="H131">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>350</v>
@@ -9710,25 +9710,25 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.05882352941176471</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D132">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="E132">
-        <v>0.67</v>
+        <v>0.87</v>
       </c>
       <c r="F132">
-        <v>0.33</v>
+        <v>0.13</v>
       </c>
       <c r="G132" t="b">
         <v>1</v>
       </c>
       <c r="H132">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>351</v>
@@ -9760,25 +9760,25 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.05785123966942149</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C133">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D133">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="E133">
-        <v>0.93</v>
+        <v>0.75</v>
       </c>
       <c r="F133">
-        <v>0.06999999999999995</v>
+        <v>0.25</v>
       </c>
       <c r="G133" t="b">
         <v>1</v>
       </c>
       <c r="H133">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>352</v>
@@ -9810,25 +9810,25 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.05714285714285714</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C134">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D134">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="E134">
-        <v>0.87</v>
+        <v>0.5</v>
       </c>
       <c r="F134">
-        <v>0.13</v>
+        <v>0.5</v>
       </c>
       <c r="G134" t="b">
         <v>1</v>
       </c>
       <c r="H134">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>353</v>
@@ -9860,25 +9860,25 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
       <c r="D135">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E135">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>354</v>
@@ -9910,25 +9910,25 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.05555555555555555</v>
+        <v>0.05217391304347826</v>
       </c>
       <c r="C136">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D136">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="E136">
-        <v>0.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F136">
-        <v>0.5</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G136" t="b">
         <v>1</v>
       </c>
       <c r="H136">
-        <v>17</v>
+        <v>218</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>355</v>
@@ -9960,25 +9960,25 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.05263157894736842</v>
+        <v>0.05063291139240506</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D137">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F137">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>356</v>
@@ -10010,25 +10010,25 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.05217391304347826</v>
+        <v>0.05</v>
       </c>
       <c r="C138">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D138">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="E138">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H138">
-        <v>218</v>
+        <v>38</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>357</v>
@@ -10060,25 +10060,25 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.05063291139240506</v>
+        <v>0.05</v>
       </c>
       <c r="C139">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D139">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="E139">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="F139">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="G139" t="b">
         <v>1</v>
       </c>
       <c r="H139">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>358</v>
@@ -10113,22 +10113,22 @@
         <v>0.05</v>
       </c>
       <c r="C140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D140">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F140">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H140">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>359</v>
@@ -10166,16 +10166,16 @@
         <v>1</v>
       </c>
       <c r="D141">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E141">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F141">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H141">
         <v>19</v>
@@ -10216,13 +10216,13 @@
         <v>1</v>
       </c>
       <c r="D142">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E142">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
       <c r="F142">
-        <v>0.06999999999999995</v>
+        <v>0.2</v>
       </c>
       <c r="G142" t="b">
         <v>1</v>
@@ -10263,25 +10263,25 @@
         <v>0.05</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D143">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F143">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H143">
-        <v>19</v>
+        <v>228</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K143">
         <v>0.2142857142857143</v>
@@ -10310,25 +10310,25 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C144">
         <v>1</v>
       </c>
       <c r="D144">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E144">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="F144">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="G144" t="b">
         <v>1</v>
       </c>
       <c r="H144">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>362</v>
@@ -10360,25 +10360,25 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.05</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C145">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D145">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="E145">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="F145">
-        <v>0.09999999999999998</v>
+        <v>0.2</v>
       </c>
       <c r="G145" t="b">
         <v>1</v>
       </c>
       <c r="H145">
-        <v>228</v>
+        <v>21</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>363</v>
@@ -10410,25 +10410,25 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C146">
         <v>1</v>
       </c>
       <c r="D146">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E146">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="F146">
-        <v>0.12</v>
+        <v>0.33</v>
       </c>
       <c r="G146" t="b">
         <v>1</v>
       </c>
       <c r="H146">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>364</v>
@@ -10460,25 +10460,25 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
       <c r="D147">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E147">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F147">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H147">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>365</v>
@@ -10510,25 +10510,25 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C148">
         <v>1</v>
       </c>
       <c r="D148">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E148">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F148">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G148" t="b">
         <v>1</v>
       </c>
       <c r="H148">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>366</v>
@@ -10566,16 +10566,16 @@
         <v>1</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F149">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H149">
         <v>22</v>
@@ -10616,13 +10616,13 @@
         <v>1</v>
       </c>
       <c r="D150">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="E150">
-        <v>0.5</v>
+        <v>0.97</v>
       </c>
       <c r="F150">
-        <v>0.5</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G150" t="b">
         <v>1</v>
@@ -10631,7 +10631,7 @@
         <v>22</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K150">
         <v>0.2051282051282051</v>
@@ -10666,13 +10666,13 @@
         <v>1</v>
       </c>
       <c r="D151">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="E151">
-        <v>0.8</v>
+        <v>0.99</v>
       </c>
       <c r="F151">
-        <v>0.2</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
@@ -10681,7 +10681,7 @@
         <v>22</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K151">
         <v>0.2045454545454546</v>
@@ -10716,16 +10716,16 @@
         <v>1</v>
       </c>
       <c r="D152">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="E152">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H152">
         <v>22</v>
@@ -10760,25 +10760,25 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C153">
         <v>1</v>
       </c>
       <c r="D153">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="E153">
-        <v>0.99</v>
+        <v>0.5</v>
       </c>
       <c r="F153">
-        <v>0.01000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>369</v>
@@ -10810,25 +10810,25 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.04347826086956522</v>
+        <v>0.04123711340206185</v>
       </c>
       <c r="C154">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D154">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F154">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H154">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>370</v>
@@ -10860,25 +10860,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.04166666666666666</v>
+        <v>0.0410958904109589</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D155">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E155">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F155">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>371</v>
@@ -10910,25 +10910,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.04123711340206185</v>
+        <v>0.04</v>
       </c>
       <c r="C156">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D156">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="E156">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F156">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H156">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>372</v>
@@ -10960,25 +10960,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.0410958904109589</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C157">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D157">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E157">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F157">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
       </c>
       <c r="H157">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>373</v>
@@ -11010,25 +11010,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
       <c r="D158">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F158">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H158">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>374</v>
@@ -11066,13 +11066,13 @@
         <v>1</v>
       </c>
       <c r="D159">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E159">
-        <v>0.5</v>
+        <v>0.89</v>
       </c>
       <c r="F159">
-        <v>0.5</v>
+        <v>0.11</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
@@ -11116,13 +11116,13 @@
         <v>1</v>
       </c>
       <c r="D160">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E160">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="F160">
-        <v>0.17</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
@@ -11160,25 +11160,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
       <c r="D161">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E161">
-        <v>0.89</v>
+        <v>0.5</v>
       </c>
       <c r="F161">
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>377</v>
@@ -11210,25 +11210,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
       <c r="D162">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E162">
-        <v>0.91</v>
+        <v>0.8</v>
       </c>
       <c r="F162">
-        <v>0.08999999999999997</v>
+        <v>0.2</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>81</v>
@@ -11266,13 +11266,13 @@
         <v>1</v>
       </c>
       <c r="D163">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E163">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="F163">
-        <v>0.5</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
@@ -11316,13 +11316,13 @@
         <v>1</v>
       </c>
       <c r="D164">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E164">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="F164">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
@@ -11331,7 +11331,7 @@
         <v>26</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K164">
         <v>0.1962616822429906</v>
@@ -11360,25 +11360,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.03703703703703703</v>
+        <v>0.03643724696356275</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D165">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="E165">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="F165">
-        <v>0.05000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>26</v>
+        <v>238</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>379</v>
@@ -11410,25 +11410,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E166">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F166">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H166">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>380</v>
@@ -11460,25 +11460,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.03643724696356275</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C167">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D167">
-        <v>89</v>
+        <v>2</v>
       </c>
       <c r="E167">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="F167">
-        <v>0.09999999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>238</v>
+        <v>27</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>381</v>
@@ -11513,22 +11513,22 @@
         <v>0.03571428571428571</v>
       </c>
       <c r="C168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D168">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F168">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H168">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>382</v>
@@ -11560,25 +11560,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C169">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D169">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E169">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="F169">
-        <v>0.5</v>
+        <v>0.27</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>383</v>
@@ -11610,25 +11610,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.03571428571428571</v>
+        <v>0.03370786516853932</v>
       </c>
       <c r="C170">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D170">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="E170">
-        <v>0.95</v>
+        <v>0.87</v>
       </c>
       <c r="F170">
-        <v>0.05000000000000004</v>
+        <v>0.13</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>384</v>
@@ -11660,25 +11660,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.03448275862068965</v>
+        <v>0.03308823529411765</v>
       </c>
       <c r="C171">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D171">
-        <v>11</v>
+        <v>153</v>
       </c>
       <c r="E171">
-        <v>0.73</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F171">
-        <v>0.27</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>84</v>
+        <v>263</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>385</v>
@@ -11710,28 +11710,28 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.03370786516853932</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C172">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D172">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="E172">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="F172">
-        <v>0.13</v>
+        <v>1</v>
       </c>
       <c r="G172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H172">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K172">
         <v>0.1886792452830189</v>
@@ -11760,28 +11760,28 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.03308823529411765</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C173">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D173">
-        <v>153</v>
+        <v>3</v>
       </c>
       <c r="E173">
-        <v>0.9399999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="F173">
-        <v>0.06000000000000005</v>
+        <v>0.33</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>263</v>
+        <v>30</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K173">
         <v>0.1875</v>
@@ -11810,28 +11810,28 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.03225806451612903</v>
+        <v>0.03125</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F174">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H174">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K174">
         <v>0.1846153846153846</v>
@@ -11860,28 +11860,28 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.03225806451612903</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C175">
         <v>1</v>
       </c>
       <c r="D175">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E175">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F175">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H175">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K175">
         <v>0.1842105263157895</v>
@@ -11910,28 +11910,28 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.03125</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E176">
-        <v>0.91</v>
+        <v>0.86</v>
       </c>
       <c r="F176">
-        <v>0.08999999999999997</v>
+        <v>0.14</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J176" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K176">
         <v>0.1836734693877551</v>
@@ -11960,25 +11960,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.0303030303030303</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="D177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H177">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>386</v>
@@ -12010,13 +12010,13 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.0303030303030303</v>
+        <v>0.02752293577981652</v>
       </c>
       <c r="C178">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D178">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E178">
         <v>0.86</v>
@@ -12028,7 +12028,7 @@
         <v>1</v>
       </c>
       <c r="H178">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>387</v>
@@ -12060,25 +12060,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.02941176470588235</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C179">
         <v>1</v>
       </c>
       <c r="D179">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E179">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H179">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>388</v>
@@ -12110,25 +12110,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.02752293577981652</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C180">
+        <v>1</v>
+      </c>
+      <c r="D180">
         <v>3</v>
       </c>
-      <c r="D180">
-        <v>21</v>
-      </c>
       <c r="E180">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="F180">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>389</v>
@@ -12166,16 +12166,16 @@
         <v>1</v>
       </c>
       <c r="D181">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F181">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H181">
         <v>36</v>
@@ -12210,25 +12210,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.02702702702702703</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E182">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F182">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H182">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>391</v>
@@ -12260,25 +12260,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.02702702702702703</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E183">
-        <v>0.95</v>
+        <v>0.67</v>
       </c>
       <c r="F183">
-        <v>0.05000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>392</v>
@@ -12316,16 +12316,16 @@
         <v>1</v>
       </c>
       <c r="D184">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F184">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H184">
         <v>37</v>
@@ -12366,13 +12366,13 @@
         <v>1</v>
       </c>
       <c r="D185">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E185">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="F185">
-        <v>0.33</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
@@ -12410,25 +12410,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.02631578947368421</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E186">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F186">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H186">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>395</v>
@@ -12460,28 +12460,28 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.02631578947368421</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E187">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="F187">
-        <v>0.07999999999999996</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K187">
         <v>0.1785714285714286</v>
@@ -12510,25 +12510,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.02564102564102564</v>
+        <v>0.025</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F188">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H188">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>396</v>
@@ -12560,25 +12560,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.02564102564102564</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="E189">
-        <v>0.96</v>
+        <v>0.8</v>
       </c>
       <c r="F189">
-        <v>0.04000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>397</v>
@@ -12610,28 +12610,28 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.025</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E190">
-        <v>0.5</v>
+        <v>0.96</v>
       </c>
       <c r="F190">
-        <v>0.5</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J190" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K190">
         <v>0.1764705882352941</v>
@@ -12666,13 +12666,13 @@
         <v>1</v>
       </c>
       <c r="D191">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E191">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F191">
-        <v>0.2</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
@@ -12710,25 +12710,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.02439024390243903</v>
+        <v>0.02419354838709677</v>
       </c>
       <c r="C192">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D192">
-        <v>27</v>
+        <v>166</v>
       </c>
       <c r="E192">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F192">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>40</v>
+        <v>484</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>399</v>
@@ -12760,28 +12760,28 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.02439024390243903</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E193">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="F193">
-        <v>0.09999999999999998</v>
+        <v>0.25</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J193" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K193">
         <v>0.1739130434782609</v>
@@ -12810,25 +12810,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.02419354838709677</v>
+        <v>0.02372881355932203</v>
       </c>
       <c r="C194">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D194">
-        <v>166</v>
+        <v>318</v>
       </c>
       <c r="E194">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F194">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>484</v>
+        <v>576</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>400</v>
@@ -12860,25 +12860,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.02380952380952381</v>
+        <v>0.02362204724409449</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D195">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="E195">
-        <v>0.75</v>
+        <v>0.93</v>
       </c>
       <c r="F195">
-        <v>0.25</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>401</v>
@@ -12910,25 +12910,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.02372881355932203</v>
+        <v>0.02352941176470588</v>
       </c>
       <c r="C196">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D196">
-        <v>318</v>
+        <v>80</v>
       </c>
       <c r="E196">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F196">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>576</v>
+        <v>83</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>402</v>
@@ -12960,25 +12960,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.02362204724409449</v>
+        <v>0.02298850574712644</v>
       </c>
       <c r="C197">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D197">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="E197">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F197">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>403</v>
@@ -13010,25 +13010,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.02352941176470588</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D198">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="E198">
-        <v>0.97</v>
+        <v>0.89</v>
       </c>
       <c r="F198">
-        <v>0.03000000000000003</v>
+        <v>0.11</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>404</v>
@@ -13060,28 +13060,28 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.02298850574712644</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D199">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="E199">
-        <v>0.97</v>
+        <v>0.75</v>
       </c>
       <c r="F199">
-        <v>0.03000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K199">
         <v>0.169811320754717</v>
@@ -13116,13 +13116,13 @@
         <v>1</v>
       </c>
       <c r="D200">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E200">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F200">
-        <v>0.11</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
@@ -13131,7 +13131,7 @@
         <v>44</v>
       </c>
       <c r="J200" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K200">
         <v>0.1691176470588235</v>
@@ -13160,25 +13160,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.02222222222222222</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E201">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="F201">
-        <v>0.25</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>405</v>
@@ -13210,25 +13210,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.02222222222222222</v>
+        <v>0.02061855670103093</v>
       </c>
       <c r="C202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D202">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E202">
-        <v>0.9399999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="F202">
-        <v>0.06000000000000005</v>
+        <v>0.14</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>406</v>
@@ -13260,25 +13260,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.02127659574468085</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E203">
-        <v>0.91</v>
+        <v>0.5</v>
       </c>
       <c r="F203">
-        <v>0.08999999999999997</v>
+        <v>0.5</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>407</v>
@@ -13310,25 +13310,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.02061855670103093</v>
+        <v>0.02027027027027027</v>
       </c>
       <c r="C204">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D204">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="E204">
-        <v>0.86</v>
+        <v>0.96</v>
       </c>
       <c r="F204">
-        <v>0.14</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>408</v>
@@ -13360,25 +13360,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.02040816326530612</v>
+        <v>0.02</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E205">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="F205">
-        <v>0.5</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>409</v>
@@ -13410,25 +13410,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.02027027027027027</v>
+        <v>0.02</v>
       </c>
       <c r="C206">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D206">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="E206">
-        <v>0.96</v>
+        <v>0.8</v>
       </c>
       <c r="F206">
-        <v>0.04000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>410</v>
@@ -13460,28 +13460,28 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.02</v>
+        <v>0.01985111662531017</v>
       </c>
       <c r="C207">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D207">
-        <v>10</v>
+        <v>563</v>
       </c>
       <c r="E207">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F207">
-        <v>0.09999999999999998</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>49</v>
+        <v>1580</v>
       </c>
       <c r="J207" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K207">
         <v>0.1666666666666667</v>
@@ -13510,25 +13510,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.02</v>
+        <v>0.01984126984126984</v>
       </c>
       <c r="C208">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D208">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E208">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F208">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G208" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H208">
-        <v>98</v>
+        <v>247</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>411</v>
@@ -13560,25 +13560,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.01985111662531017</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="C209">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="D209">
-        <v>563</v>
+        <v>60</v>
       </c>
       <c r="E209">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F209">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>1580</v>
+        <v>99</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>412</v>
@@ -13610,25 +13610,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.01984126984126984</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="C210">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D210">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F210">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H210">
-        <v>247</v>
+        <v>99</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>413</v>
@@ -13660,25 +13660,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.0198019801980198</v>
+        <v>0.01961639058413252</v>
       </c>
       <c r="C211">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="D211">
-        <v>60</v>
+        <v>858</v>
       </c>
       <c r="E211">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F211">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>99</v>
+        <v>2249</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>414</v>
@@ -13710,25 +13710,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.0198019801980198</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D212">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E212">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F212">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>415</v>
@@ -13760,25 +13760,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.01961639058413252</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="C213">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="D213">
-        <v>858</v>
+        <v>62</v>
       </c>
       <c r="E213">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F213">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>2249</v>
+        <v>103</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>416</v>
@@ -13810,13 +13810,13 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.01923076923076923</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E214">
         <v>0.95</v>
@@ -13828,7 +13828,7 @@
         <v>1</v>
       </c>
       <c r="H214">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>417</v>
@@ -13860,25 +13860,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.01904761904761905</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D215">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="E215">
-        <v>0.97</v>
+        <v>0.8</v>
       </c>
       <c r="F215">
-        <v>0.03000000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>418</v>
@@ -13910,25 +13910,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.01886792452830189</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E216">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="F216">
-        <v>0.05000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>419</v>
@@ -13966,13 +13966,13 @@
         <v>1</v>
       </c>
       <c r="D217">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E217">
-        <v>0.8</v>
+        <v>0.92</v>
       </c>
       <c r="F217">
-        <v>0.2</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
@@ -14010,25 +14010,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.01851851851851852</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E218">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F218">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H218">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>421</v>
@@ -14060,25 +14060,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.01851851851851852</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E219">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="F219">
-        <v>0.07999999999999996</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>422</v>
@@ -14110,25 +14110,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.01785714285714286</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F220">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H220">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>423</v>
@@ -14160,25 +14160,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.01785714285714286</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E221">
-        <v>0.96</v>
+        <v>0.86</v>
       </c>
       <c r="F221">
-        <v>0.04000000000000004</v>
+        <v>0.14</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>424</v>
@@ -14210,25 +14210,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.01724137931034483</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E222">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F222">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G222" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H222">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>425</v>
@@ -14260,25 +14260,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.01724137931034483</v>
+        <v>0.01680672268907563</v>
       </c>
       <c r="C223">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D223">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E223">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F223">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>426</v>
@@ -14310,25 +14310,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.01694915254237288</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F224">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G224" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H224">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>427</v>
@@ -14360,25 +14360,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.01680672268907563</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="C225">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D225">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="E225">
-        <v>0.83</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F225">
-        <v>0.17</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>117</v>
+        <v>186</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>428</v>
@@ -14410,25 +14410,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.01639344262295082</v>
+        <v>0.01573676680972818</v>
       </c>
       <c r="C226">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D226">
-        <v>19</v>
+        <v>179</v>
       </c>
       <c r="E226">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F226">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>60</v>
+        <v>688</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>429</v>
@@ -14460,25 +14460,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.01587301587301587</v>
+        <v>0.01557632398753894</v>
       </c>
       <c r="C227">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D227">
-        <v>51</v>
+        <v>269</v>
       </c>
       <c r="E227">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F227">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>186</v>
+        <v>632</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>430</v>
@@ -14510,25 +14510,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.01573676680972818</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="C228">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D228">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="E228">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="F228">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>688</v>
+        <v>64</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>431</v>
@@ -14560,25 +14560,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.01557632398753894</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="C229">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D229">
-        <v>269</v>
+        <v>9</v>
       </c>
       <c r="E229">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="F229">
-        <v>0.04000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>632</v>
+        <v>65</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>432</v>
@@ -14610,28 +14610,28 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.01538461538461539</v>
+        <v>0.015</v>
       </c>
       <c r="C230">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D230">
-        <v>12</v>
+        <v>173</v>
       </c>
       <c r="E230">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="F230">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>64</v>
+        <v>394</v>
       </c>
       <c r="J230" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K230">
         <v>0.16</v>
@@ -14660,25 +14660,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.01515151515151515</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E231">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="F231">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>433</v>
@@ -14710,25 +14710,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.015</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="C232">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D232">
-        <v>173</v>
+        <v>1</v>
       </c>
       <c r="E232">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F232">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G232" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H232">
-        <v>394</v>
+        <v>67</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>434</v>
@@ -14760,7 +14760,7 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.01492537313432836</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="C233">
         <v>1</v>
@@ -14778,10 +14778,10 @@
         <v>1</v>
       </c>
       <c r="H233">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J233" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K233">
         <v>0.1578947368421053</v>
@@ -14810,28 +14810,28 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.01470588235294118</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F234">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G234" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H234">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="J234" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K234">
         <v>0.1576086956521739</v>
@@ -14860,28 +14860,28 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.0136986301369863</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E235">
-        <v>0.75</v>
+        <v>0.89</v>
       </c>
       <c r="F235">
-        <v>0.25</v>
+        <v>0.11</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="J235" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K235">
         <v>0.1551724137931035</v>
@@ -14910,25 +14910,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.01298701298701299</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E236">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="F236">
-        <v>0.07999999999999996</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>435</v>
@@ -14960,28 +14960,28 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.01282051282051282</v>
+        <v>0.01229508196721311</v>
       </c>
       <c r="C237">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D237">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="E237">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="F237">
-        <v>0.11</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>77</v>
+        <v>241</v>
       </c>
       <c r="J237" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K237">
         <v>0.1538461538461539</v>
@@ -15010,25 +15010,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.01282051282051282</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="C238">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D238">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E238">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F238">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G238" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H238">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>436</v>
@@ -15060,28 +15060,28 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.01229508196721311</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="C239">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D239">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E239">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F239">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>241</v>
+        <v>82</v>
       </c>
       <c r="J239" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K239">
         <v>0.1538461538461539</v>
@@ -15110,25 +15110,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.01204819277108434</v>
+        <v>0.01197604790419162</v>
       </c>
       <c r="C240">
         <v>2</v>
       </c>
       <c r="D240">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E240">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F240">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G240" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H240">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>437</v>
@@ -15160,25 +15160,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.01204819277108434</v>
+        <v>0.01180257510729614</v>
       </c>
       <c r="C241">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D241">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E241">
-        <v>0.97</v>
+        <v>0.77</v>
       </c>
       <c r="F241">
-        <v>0.03000000000000003</v>
+        <v>0.23</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>82</v>
+        <v>921</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>438</v>
@@ -15210,28 +15210,28 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.01197604790419162</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="C242">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D242">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E242">
-        <v>0.67</v>
+        <v>0.93</v>
       </c>
       <c r="F242">
-        <v>0.33</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="J242" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K242">
         <v>0.1538461538461539</v>
@@ -15260,25 +15260,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.01180257510729614</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="C243">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D243">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="E243">
-        <v>0.77</v>
+        <v>0.86</v>
       </c>
       <c r="F243">
-        <v>0.23</v>
+        <v>0.14</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>921</v>
+        <v>89</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>439</v>
@@ -15310,7 +15310,7 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.01162790697674419</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="C244">
         <v>1</v>
@@ -15328,10 +15328,10 @@
         <v>1</v>
       </c>
       <c r="H244">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J244" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K244">
         <v>0.1532258064516129</v>
@@ -15360,25 +15360,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.01111111111111111</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="C245">
         <v>1</v>
       </c>
       <c r="D245">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E245">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F245">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G245" t="b">
         <v>1</v>
       </c>
       <c r="H245">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>440</v>
@@ -15410,25 +15410,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.01098901098901099</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="C246">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D246">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E246">
-        <v>0.93</v>
+        <v>0.4</v>
       </c>
       <c r="F246">
-        <v>0.06999999999999995</v>
+        <v>0.6</v>
       </c>
       <c r="G246" t="b">
         <v>1</v>
       </c>
       <c r="H246">
-        <v>90</v>
+        <v>288</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>441</v>
@@ -15460,25 +15460,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.01052631578947368</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="C247">
         <v>1</v>
       </c>
       <c r="D247">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E247">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="F247">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="G247" t="b">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>442</v>
@@ -15510,28 +15510,28 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.01030927835051546</v>
+        <v>0.01</v>
       </c>
       <c r="C248">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D248">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E248">
-        <v>0.4</v>
+        <v>0.93</v>
       </c>
       <c r="F248">
-        <v>0.6</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>288</v>
+        <v>99</v>
       </c>
       <c r="J248" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K248">
         <v>0.15</v>
@@ -15560,25 +15560,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.01030927835051546</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="C249">
         <v>1</v>
       </c>
       <c r="D249">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="E249">
-        <v>0.75</v>
+        <v>0.97</v>
       </c>
       <c r="F249">
-        <v>0.25</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>443</v>
@@ -15610,25 +15610,25 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.01</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="C250">
         <v>1</v>
       </c>
       <c r="D250">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E250">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="F250">
-        <v>0.06999999999999995</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>444</v>
@@ -15660,25 +15660,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.009523809523809525</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="C251">
         <v>1</v>
       </c>
       <c r="D251">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E251">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F251">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>445</v>
@@ -15710,25 +15710,25 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.009523809523809525</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="C252">
         <v>1</v>
       </c>
       <c r="D252">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="E252">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F252">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>446</v>
@@ -15760,28 +15760,28 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.009433962264150943</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="C253">
         <v>1</v>
       </c>
       <c r="D253">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E253">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F253">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G253" t="b">
         <v>1</v>
       </c>
       <c r="H253">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J253" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K253">
         <v>0.1466666666666667</v>
@@ -15810,25 +15810,25 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.009433962264150943</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="C254">
         <v>1</v>
       </c>
       <c r="D254">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E254">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="F254">
-        <v>0.05000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G254" t="b">
         <v>1</v>
       </c>
       <c r="H254">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>447</v>
@@ -15860,28 +15860,28 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.009259259259259259</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="C255">
         <v>1</v>
       </c>
       <c r="D255">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="E255">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F255">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G255" t="b">
         <v>1</v>
       </c>
       <c r="H255">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J255" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K255">
         <v>0.1463414634146341</v>
@@ -15910,28 +15910,28 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.009174311926605505</v>
+        <v>0.008771929824561403</v>
       </c>
       <c r="C256">
         <v>1</v>
       </c>
       <c r="D256">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="E256">
-        <v>0.75</v>
+        <v>0.96</v>
       </c>
       <c r="F256">
-        <v>0.25</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G256" t="b">
         <v>1</v>
       </c>
       <c r="H256">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="J256" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K256">
         <v>0.1451612903225807</v>
@@ -15960,28 +15960,28 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.009174311926605505</v>
+        <v>0.008695652173913044</v>
       </c>
       <c r="C257">
         <v>1</v>
       </c>
       <c r="D257">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E257">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F257">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G257" t="b">
         <v>1</v>
       </c>
       <c r="H257">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="J257" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K257">
         <v>0.1451612903225807</v>
@@ -16010,25 +16010,25 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.008771929824561403</v>
+        <v>0.008403361344537815</v>
       </c>
       <c r="C258">
         <v>1</v>
       </c>
       <c r="D258">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E258">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F258">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G258" t="b">
         <v>1</v>
       </c>
       <c r="H258">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>448</v>
@@ -16060,25 +16060,25 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.008695652173913044</v>
+        <v>0.007462686567164179</v>
       </c>
       <c r="C259">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D259">
-        <v>14</v>
+        <v>220</v>
       </c>
       <c r="E259">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="F259">
-        <v>0.06999999999999995</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G259" t="b">
         <v>1</v>
       </c>
       <c r="H259">
-        <v>114</v>
+        <v>266</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>449</v>
@@ -16110,25 +16110,25 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.008403361344537815</v>
+        <v>0.006993006993006993</v>
       </c>
       <c r="C260">
         <v>1</v>
       </c>
       <c r="D260">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E260">
-        <v>0.95</v>
+        <v>0.67</v>
       </c>
       <c r="F260">
-        <v>0.05000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G260" t="b">
         <v>1</v>
       </c>
       <c r="H260">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>450</v>
@@ -16160,25 +16160,25 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.007462686567164179</v>
+        <v>0.00641025641025641</v>
       </c>
       <c r="C261">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D261">
-        <v>220</v>
+        <v>30</v>
       </c>
       <c r="E261">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F261">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G261" t="b">
         <v>1</v>
       </c>
       <c r="H261">
-        <v>266</v>
+        <v>155</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>451</v>
@@ -16210,25 +16210,25 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.006993006993006993</v>
+        <v>0.006289308176100629</v>
       </c>
       <c r="C262">
         <v>1</v>
       </c>
       <c r="D262">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E262">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="F262">
-        <v>0.33</v>
+        <v>0.12</v>
       </c>
       <c r="G262" t="b">
         <v>1</v>
       </c>
       <c r="H262">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>452</v>
@@ -16260,25 +16260,25 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.00641025641025641</v>
+        <v>0.005434782608695652</v>
       </c>
       <c r="C263">
         <v>1</v>
       </c>
       <c r="D263">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="E263">
-        <v>0.97</v>
+        <v>0.67</v>
       </c>
       <c r="F263">
-        <v>0.03000000000000003</v>
+        <v>0.33</v>
       </c>
       <c r="G263" t="b">
         <v>1</v>
       </c>
       <c r="H263">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>453</v>
@@ -16310,25 +16310,25 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.006289308176100629</v>
+        <v>0.005361930294906166</v>
       </c>
       <c r="C264">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D264">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E264">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F264">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G264" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H264">
-        <v>158</v>
+        <v>371</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>454</v>
@@ -16360,25 +16360,25 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.005434782608695652</v>
+        <v>0.0053475935828877</v>
       </c>
       <c r="C265">
         <v>1</v>
       </c>
       <c r="D265">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E265">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F265">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G265" t="b">
         <v>1</v>
       </c>
       <c r="H265">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>455</v>
@@ -16410,25 +16410,25 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>0.005361930294906166</v>
+        <v>0.005319148936170213</v>
       </c>
       <c r="C266">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D266">
         <v>2</v>
       </c>
       <c r="E266">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F266">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G266" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H266">
-        <v>371</v>
+        <v>187</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>456</v>
@@ -16460,25 +16460,25 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>0.0053475935828877</v>
+        <v>0.005008944543828265</v>
       </c>
       <c r="C267">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D267">
-        <v>5</v>
+        <v>420</v>
       </c>
       <c r="E267">
-        <v>0.8</v>
+        <v>0.97</v>
       </c>
       <c r="F267">
-        <v>0.2</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G267" t="b">
         <v>1</v>
       </c>
       <c r="H267">
-        <v>186</v>
+        <v>2781</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>457</v>
@@ -16510,25 +16510,25 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.005319148936170213</v>
+        <v>0.005</v>
       </c>
       <c r="C268">
         <v>1</v>
       </c>
       <c r="D268">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="E268">
-        <v>0.5</v>
+        <v>0.99</v>
       </c>
       <c r="F268">
-        <v>0.5</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G268" t="b">
         <v>1</v>
       </c>
       <c r="H268">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>458</v>
@@ -16560,25 +16560,25 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>0.005008944543828265</v>
+        <v>0.004587155963302753</v>
       </c>
       <c r="C269">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D269">
-        <v>420</v>
+        <v>50</v>
       </c>
       <c r="E269">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F269">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G269" t="b">
         <v>1</v>
       </c>
       <c r="H269">
-        <v>2781</v>
+        <v>217</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>459</v>
@@ -16610,25 +16610,25 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>0.005</v>
+        <v>0.004533091568449683</v>
       </c>
       <c r="C270">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D270">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="E270">
-        <v>0.99</v>
+        <v>0.92</v>
       </c>
       <c r="F270">
-        <v>0.01000000000000001</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G270" t="b">
         <v>1</v>
       </c>
       <c r="H270">
-        <v>199</v>
+        <v>1098</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>460</v>
@@ -16660,25 +16660,25 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>0.004587155963302753</v>
+        <v>0.00425531914893617</v>
       </c>
       <c r="C271">
         <v>1</v>
       </c>
       <c r="D271">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="E271">
-        <v>0.98</v>
+        <v>0.5</v>
       </c>
       <c r="F271">
-        <v>0.02000000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="G271" t="b">
         <v>1</v>
       </c>
       <c r="H271">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>461</v>
@@ -16710,25 +16710,25 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>0.004533091568449683</v>
+        <v>0.003883495145631068</v>
       </c>
       <c r="C272">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D272">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="E272">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F272">
-        <v>0.07999999999999996</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G272" t="b">
         <v>1</v>
       </c>
       <c r="H272">
-        <v>1098</v>
+        <v>513</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>462</v>
@@ -16760,25 +16760,25 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>0.00425531914893617</v>
+        <v>0.002941176470588235</v>
       </c>
       <c r="C273">
         <v>1</v>
       </c>
       <c r="D273">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E273">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="F273">
-        <v>0.5</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G273" t="b">
         <v>1</v>
       </c>
       <c r="H273">
-        <v>234</v>
+        <v>339</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>463</v>
@@ -16806,30 +16806,6 @@
       </c>
     </row>
     <row r="274" spans="1:17">
-      <c r="A274" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B274">
-        <v>0.003883495145631068</v>
-      </c>
-      <c r="C274">
-        <v>2</v>
-      </c>
-      <c r="D274">
-        <v>32</v>
-      </c>
-      <c r="E274">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F274">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="G274" t="b">
-        <v>1</v>
-      </c>
-      <c r="H274">
-        <v>513</v>
-      </c>
       <c r="J274" s="1" t="s">
         <v>464</v>
       </c>
@@ -16856,30 +16832,6 @@
       </c>
     </row>
     <row r="275" spans="1:17">
-      <c r="A275" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B275">
-        <v>0.002941176470588235</v>
-      </c>
-      <c r="C275">
-        <v>1</v>
-      </c>
-      <c r="D275">
-        <v>21</v>
-      </c>
-      <c r="E275">
-        <v>0.95</v>
-      </c>
-      <c r="F275">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="G275" t="b">
-        <v>1</v>
-      </c>
-      <c r="H275">
-        <v>339</v>
-      </c>
       <c r="J275" s="1" t="s">
         <v>465</v>
       </c>
@@ -17245,7 +17197,7 @@
     </row>
     <row r="289" spans="10:17">
       <c r="J289" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K289">
         <v>0.1386861313868613</v>
@@ -17375,7 +17327,7 @@
     </row>
     <row r="294" spans="10:17">
       <c r="J294" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K294">
         <v>0.1363636363636364</v>
@@ -17609,7 +17561,7 @@
     </row>
     <row r="303" spans="10:17">
       <c r="J303" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K303">
         <v>0.1333333333333333</v>
@@ -17635,7 +17587,7 @@
     </row>
     <row r="304" spans="10:17">
       <c r="J304" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K304">
         <v>0.1333333333333333</v>
@@ -17713,7 +17665,7 @@
     </row>
     <row r="307" spans="10:17">
       <c r="J307" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K307">
         <v>0.1333333333333333</v>
@@ -17765,7 +17717,7 @@
     </row>
     <row r="309" spans="10:17">
       <c r="J309" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K309">
         <v>0.1330935251798561</v>
@@ -17791,7 +17743,7 @@
     </row>
     <row r="310" spans="10:17">
       <c r="J310" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K310">
         <v>0.1326530612244898</v>
@@ -17921,7 +17873,7 @@
     </row>
     <row r="315" spans="10:17">
       <c r="J315" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K315">
         <v>0.1273925321619077</v>
@@ -17973,7 +17925,7 @@
     </row>
     <row r="317" spans="10:17">
       <c r="J317" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K317">
         <v>0.1262135922330097</v>
@@ -18987,7 +18939,7 @@
     </row>
     <row r="356" spans="10:17">
       <c r="J356" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K356">
         <v>0.1219512195121951</v>
@@ -19247,7 +19199,7 @@
     </row>
     <row r="366" spans="10:17">
       <c r="J366" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K366">
         <v>0.1160714285714286</v>
@@ -19429,7 +19381,7 @@
     </row>
     <row r="373" spans="10:17">
       <c r="J373" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K373">
         <v>0.1121495327102804</v>
@@ -19949,7 +19901,7 @@
     </row>
     <row r="393" spans="10:17">
       <c r="J393" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K393">
         <v>0.1111111111111111</v>
@@ -20027,7 +19979,7 @@
     </row>
     <row r="396" spans="10:17">
       <c r="J396" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K396">
         <v>0.1111111111111111</v>
@@ -20287,7 +20239,7 @@
     </row>
     <row r="406" spans="10:17">
       <c r="J406" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K406">
         <v>0.1095890410958904</v>
@@ -20573,7 +20525,7 @@
     </row>
     <row r="417" spans="10:17">
       <c r="J417" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K417">
         <v>0.1023622047244094</v>
@@ -21275,7 +21227,7 @@
     </row>
     <row r="444" spans="10:17">
       <c r="J444" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K444">
         <v>0.0975609756097561</v>
@@ -21379,7 +21331,7 @@
     </row>
     <row r="448" spans="10:17">
       <c r="J448" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K448">
         <v>0.09523809523809523</v>
@@ -21431,7 +21383,7 @@
     </row>
     <row r="450" spans="10:17">
       <c r="J450" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K450">
         <v>0.09411764705882353</v>
@@ -21535,7 +21487,7 @@
     </row>
     <row r="454" spans="10:17">
       <c r="J454" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K454">
         <v>0.09090909090909091</v>
@@ -21717,7 +21669,7 @@
     </row>
     <row r="461" spans="10:17">
       <c r="J461" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K461">
         <v>0.09090909090909091</v>
@@ -22601,7 +22553,7 @@
     </row>
     <row r="495" spans="10:17">
       <c r="J495" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K495">
         <v>0.08695652173913043</v>
@@ -22653,7 +22605,7 @@
     </row>
     <row r="497" spans="10:17">
       <c r="J497" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K497">
         <v>0.08695652173913043</v>
@@ -23511,7 +23463,7 @@
     </row>
     <row r="530" spans="10:17">
       <c r="J530" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K530">
         <v>0.07874015748031496</v>
@@ -23901,7 +23853,7 @@
     </row>
     <row r="545" spans="10:17">
       <c r="J545" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K545">
         <v>0.07547169811320754</v>
@@ -24239,7 +24191,7 @@
     </row>
     <row r="558" spans="10:17">
       <c r="J558" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K558">
         <v>0.07142857142857142</v>
@@ -24681,7 +24633,7 @@
     </row>
     <row r="575" spans="10:17">
       <c r="J575" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K575">
         <v>0.07017543859649122</v>
@@ -24707,7 +24659,7 @@
     </row>
     <row r="576" spans="10:17">
       <c r="J576" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K576">
         <v>0.06818181818181818</v>
@@ -25201,7 +25153,7 @@
     </row>
     <row r="595" spans="10:17">
       <c r="J595" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K595">
         <v>0.06382978723404255</v>
@@ -25279,7 +25231,7 @@
     </row>
     <row r="598" spans="10:17">
       <c r="J598" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K598">
         <v>0.06315789473684211</v>
@@ -25383,7 +25335,7 @@
     </row>
     <row r="602" spans="10:17">
       <c r="J602" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K602">
         <v>0.0625</v>
@@ -25825,7 +25777,7 @@
     </row>
     <row r="619" spans="10:17">
       <c r="J619" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K619">
         <v>0.05882352941176471</v>
@@ -25981,7 +25933,7 @@
     </row>
     <row r="625" spans="10:17">
       <c r="J625" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K625">
         <v>0.05714285714285714</v>
@@ -26033,7 +25985,7 @@
     </row>
     <row r="627" spans="10:17">
       <c r="J627" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K627">
         <v>0.05571030640668524</v>
@@ -26137,7 +26089,7 @@
     </row>
     <row r="631" spans="10:17">
       <c r="J631" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K631">
         <v>0.05555555555555555</v>
@@ -26241,7 +26193,7 @@
     </row>
     <row r="635" spans="10:17">
       <c r="J635" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K635">
         <v>0.05524861878453038</v>
@@ -26345,7 +26297,7 @@
     </row>
     <row r="639" spans="10:17">
       <c r="J639" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K639">
         <v>0.05263157894736842</v>
@@ -26761,7 +26713,7 @@
     </row>
     <row r="655" spans="10:17">
       <c r="J655" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K655">
         <v>0.05128205128205128</v>
@@ -26787,7 +26739,7 @@
     </row>
     <row r="656" spans="10:17">
       <c r="J656" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K656">
         <v>0.0505050505050505</v>
@@ -26813,7 +26765,7 @@
     </row>
     <row r="657" spans="10:17">
       <c r="J657" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K657">
         <v>0.05017301038062284</v>
@@ -27463,7 +27415,7 @@
     </row>
     <row r="682" spans="10:17">
       <c r="J682" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K682">
         <v>0.04347826086956522</v>
@@ -27541,7 +27493,7 @@
     </row>
     <row r="685" spans="10:17">
       <c r="J685" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K685">
         <v>0.04347826086956522</v>
@@ -27749,7 +27701,7 @@
     </row>
     <row r="693" spans="10:17">
       <c r="J693" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K693">
         <v>0.04242424242424243</v>
@@ -27853,7 +27805,7 @@
     </row>
     <row r="697" spans="10:17">
       <c r="J697" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K697">
         <v>0.04166666666666666</v>
@@ -28087,7 +28039,7 @@
     </row>
     <row r="706" spans="10:17">
       <c r="J706" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K706">
         <v>0.04</v>
@@ -28243,7 +28195,7 @@
     </row>
     <row r="712" spans="10:17">
       <c r="J712" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K712">
         <v>0.03846153846153846</v>
@@ -28295,7 +28247,7 @@
     </row>
     <row r="714" spans="10:17">
       <c r="J714" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K714">
         <v>0.03761755485893417</v>
@@ -28321,7 +28273,7 @@
     </row>
     <row r="715" spans="10:17">
       <c r="J715" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K715">
         <v>0.03703703703703703</v>
@@ -28477,7 +28429,7 @@
     </row>
     <row r="721" spans="10:17">
       <c r="J721" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K721">
         <v>0.03571428571428571</v>
@@ -29153,7 +29105,7 @@
     </row>
     <row r="747" spans="10:17">
       <c r="J747" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K747">
         <v>0.0303030303030303</v>
@@ -29517,7 +29469,7 @@
     </row>
     <row r="761" spans="10:17">
       <c r="J761" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K761">
         <v>0.02702702702702703</v>
@@ -29751,7 +29703,7 @@
     </row>
     <row r="770" spans="10:17">
       <c r="J770" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K770">
         <v>0.025</v>
@@ -29907,7 +29859,7 @@
     </row>
     <row r="776" spans="10:17">
       <c r="J776" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K776">
         <v>0.02366863905325444</v>
@@ -30141,7 +30093,7 @@
     </row>
     <row r="785" spans="10:17">
       <c r="J785" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K785">
         <v>0.02105263157894737</v>
@@ -30167,7 +30119,7 @@
     </row>
     <row r="786" spans="10:17">
       <c r="J786" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K786">
         <v>0.02040816326530612</v>
@@ -30349,7 +30301,7 @@
     </row>
     <row r="793" spans="10:17">
       <c r="J793" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K793">
         <v>0.01724137931034483</v>
@@ -30531,7 +30483,7 @@
     </row>
     <row r="800" spans="10:17">
       <c r="J800" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K800">
         <v>0.01388888888888889</v>
@@ -30687,7 +30639,7 @@
     </row>
     <row r="806" spans="10:17">
       <c r="J806" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K806">
         <v>0.01081081081081081</v>
@@ -30817,7 +30769,7 @@
     </row>
     <row r="811" spans="10:17">
       <c r="J811" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K811">
         <v>0.006896551724137931</v>
@@ -30843,7 +30795,7 @@
     </row>
     <row r="812" spans="10:17">
       <c r="J812" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K812">
         <v>0.005319148936170213</v>
@@ -30869,7 +30821,7 @@
     </row>
     <row r="813" spans="10:17">
       <c r="J813" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K813">
         <v>0.00425531914893617</v>
